--- a/emotion_data.xlsx
+++ b/emotion_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,43 +448,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-16 19:43:52</t>
+          <t>2024-12-17 19:52:20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Actividad_Activo</t>
+          <t>Actividad_Teórica</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-12-16 19:44:07</t>
+          <t>2024-12-17 19:52:35</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Actividad_Activo</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-16 19:44:47</t>
+          <t>2024-12-17 19:52:35</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-12-16 19:44:54</t>
+          <t>2024-12-17 19:52:37</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12-16 19:44:58</t>
+          <t>2024-12-17 19:52:38</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,12 +508,132 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-12-16 19:45:01</t>
+          <t>2024-12-17 19:52:39</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-12-17 19:52:40</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-12-17 19:52:41</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-12-17 19:52:42</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-12-17 19:52:43</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-12-17 19:52:46</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-12-17 19:52:54</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>happy</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-12-17 19:52:58</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-12-17 19:52:59</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-12-17 19:53:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-12-17 19:53:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
